--- a/GL_Master_21B.xlsx
+++ b/GL_Master_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2 Friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586F827B-895E-4878-BDA6-9474FA61A21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC95D89-5B09-40F9-9EAA-DFAD5E1F1B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="154">
   <si>
     <t>SL.NO</t>
   </si>
@@ -133,6 +133,9 @@
     <t>GL 80</t>
   </si>
   <si>
+    <t>GL 280</t>
+  </si>
+  <si>
     <t>GL 180</t>
   </si>
   <si>
@@ -154,12 +157,24 @@
     <t>GL 30</t>
   </si>
   <si>
+    <t>GL 220</t>
+  </si>
+  <si>
+    <t>GL 250</t>
+  </si>
+  <si>
     <t>GL 10</t>
   </si>
   <si>
+    <t>GL 240</t>
+  </si>
+  <si>
     <t>GL 200</t>
   </si>
   <si>
+    <t>GL 260</t>
+  </si>
+  <si>
     <t>GL 20</t>
   </si>
   <si>
@@ -184,6 +199,9 @@
     <t>Create Single Manual Foreign Currency  Journal Batch</t>
   </si>
   <si>
+    <t>Maintain Accounting Calendar</t>
+  </si>
+  <si>
     <t>Create Manual Statistical Journal Entry</t>
   </si>
   <si>
@@ -205,12 +223,24 @@
     <t>Manage Chart of Account Values</t>
   </si>
   <si>
+    <t>Account Monitor</t>
+  </si>
+  <si>
+    <t>Revalue Balances</t>
+  </si>
+  <si>
     <t>Open a new GL Accounting Period</t>
   </si>
   <si>
+    <t>Validate Budget Amounts</t>
+  </si>
+  <si>
     <t>Launch Auto Post</t>
   </si>
   <si>
+    <t>Translate Balances</t>
+  </si>
+  <si>
     <t>Close a new GL Accounting Period</t>
   </si>
   <si>
@@ -235,6 +265,9 @@
     <t>CreateForeignJournalBatch</t>
   </si>
   <si>
+    <t>MaintainAcctCalendar</t>
+  </si>
+  <si>
     <t>CreateStatsJournalEntry</t>
   </si>
   <si>
@@ -256,12 +289,24 @@
     <t>ManageChartAccountValues</t>
   </si>
   <si>
+    <t>AccountMonitor</t>
+  </si>
+  <si>
+    <t>RevalueBalances</t>
+  </si>
+  <si>
     <t>OpenAccountingPeriod</t>
   </si>
   <si>
+    <t>ValidateBudgetAmounts</t>
+  </si>
+  <si>
     <t>LaunchAutoPost</t>
   </si>
   <si>
+    <t>TranslateBalances</t>
+  </si>
+  <si>
     <t>CloseAccountingPeriod</t>
   </si>
   <si>
@@ -295,9 +340,6 @@
     <t>Navigation</t>
   </si>
   <si>
-    <t>NavigationPeriodClose</t>
-  </si>
-  <si>
     <t>GL_Navigation_PeriodClose.xlsx</t>
   </si>
   <si>
@@ -409,10 +451,55 @@
     <t>GL200_TestData_LaunchAutoPost_21B.xlsx</t>
   </si>
   <si>
+    <t>GL220_Script_AccountMonitor_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL220_TestData_AccountMonitor_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL240_Script_ValidateBudgetAmounts_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL240_TestData_ValidateBudgetAmounts_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL250_Script_RevalueBalances_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL250_TestData_RevalueBalances_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL260_Script_TranslateBalances_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL260_TestData_TranslateBalances_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL280_Script_MaintainAccountingCalendar_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL280_TestData_MaintainAccountingCalendar_21B.xlsx</t>
+  </si>
+  <si>
     <t>GL_Logout_21B.xlsx</t>
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NavigationIBM</t>
+  </si>
+  <si>
+    <t>NavigationGNB</t>
+  </si>
+  <si>
+    <t>GL_Navigation_IBM.xlsx</t>
+  </si>
+  <si>
+    <t>GL_Navigation_GNB.xlsx</t>
   </si>
 </sst>
 </file>
@@ -437,19 +524,18 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,7 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,27 +584,29 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,177 +922,177 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34543423-A075-4616-87B1-DF7691459A53}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.6328125" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.6328125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>24</v>
@@ -1007,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
@@ -1015,11 +1109,11 @@
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>86</v>
+      <c r="K3" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>19</v>
@@ -1031,1134 +1125,1506 @@
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="K5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="S5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="K6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="5" t="s">
+      <c r="S7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="5" t="s">
+      <c r="S8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="S9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="S10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="S11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="K12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="S12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="5" t="s">
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="T13" s="5" t="s">
+      <c r="S13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="5" t="s">
+      <c r="S14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="9">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="5" t="s">
+      <c r="S15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="T16" s="5" t="s">
+      <c r="S16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="B17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="9">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="5" t="s">
+      <c r="S17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T18" s="5" t="s">
+      <c r="S18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="9">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T19" s="5" t="s">
+      <c r="S19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" s="5" t="s">
+      <c r="S20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="K27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="5" t="s">
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T21" s="5" t="s">
+      <c r="S27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/GL_Master_21B.xlsx
+++ b/GL_Master_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\GNB Batch 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70B335-566E-43F5-8F67-D691227A8935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2914C-9F90-4CC4-9CB9-43D92740A0BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +63,10 @@
           <t>GL_Navigation_Period_21B.xlsx for:
 GL10
 GL20
-For GL 30, 50, 280 don't use any navigation file</t>
+GL150
+GL250
+GL260
+For GL 30, 50, 190, 280 don't use any navigation file</t>
         </r>
       </text>
     </comment>
@@ -116,16 +117,54 @@
 GL110
 GL120
 GL140
-GL150
 GL160
 GL180
-GL190
 GL200
-GL220
-GL240
-GL250
-GL260
-For GL30, GL50, GL280 don't use any Navigation File.</t>
+For GL30, GL50, GL190, GL280 don't use any Navigation File.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{B38202DC-4438-4597-963E-52A39BE3CBBE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Use </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">GL_Navigation_DashBoard_21B.xlsx </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>for:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GL220, GL240
+For GL 30, 50, 190, 280 don't use any navigation file</t>
         </r>
       </text>
     </comment>
@@ -134,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="155">
   <si>
     <t>SL.NO</t>
   </si>
@@ -593,13 +632,19 @@
   </si>
   <si>
     <t>GL_Navigation_Journal_21B.xlsx</t>
+  </si>
+  <si>
+    <t>NavigationDashBoard</t>
+  </si>
+  <si>
+    <t>GL_Navigation_DashBoard_21B.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +679,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -689,11 +740,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,13 +773,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34543423-A075-4616-87B1-DF7691459A53}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,1676 +1129,1738 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="14">
-        <v>1</v>
-      </c>
-      <c r="O2" s="14">
-        <v>1</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+    <row r="3" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="K4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="T3" s="10" t="s">
+      <c r="S4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="S5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" s="6" t="s">
+      <c r="S6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" s="6" t="s">
+      <c r="S7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" s="6" t="s">
+      <c r="S8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" s="6" t="s">
+      <c r="S9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="K10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="6" t="s">
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="T10" s="6" t="s">
+      <c r="S10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="6" t="s">
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="S11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="T12" s="6" t="s">
+      <c r="S12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="6" t="s">
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T13" s="6" t="s">
+      <c r="S13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="K14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="6" t="s">
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="6" t="s">
+      <c r="S14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="K15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q15" s="6" t="s">
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15" s="6" t="s">
+      <c r="S15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="K16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="6" t="s">
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="T16" s="6" t="s">
+      <c r="S16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="K17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="6" t="s">
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T17" s="6" t="s">
+      <c r="S17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="6" t="s">
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" s="6" t="s">
+      <c r="S18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="K19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="6" t="s">
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" s="6" t="s">
+      <c r="S19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q20" s="6" t="s">
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="6" t="s">
+      <c r="S20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q21" s="6" t="s">
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="S21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="K22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="8">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="6" t="s">
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="6" t="s">
+      <c r="S22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" s="6" t="s">
+      <c r="S23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
-        <v>1</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T24" s="6" t="s">
+      <c r="S24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="K25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q25" s="6" t="s">
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="S25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="8">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6" t="s">
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+    <row r="28" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="16" t="s">
+      <c r="G28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="15" t="s">
+      <c r="I28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="14">
-        <v>1</v>
-      </c>
-      <c r="O27" s="14">
-        <v>1</v>
-      </c>
-      <c r="P27" s="15" t="s">
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="T28" s="12" t="s">
         <v>20</v>
       </c>
     </row>

--- a/GL_Master_21B.xlsx
+++ b/GL_Master_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\15th July GL170\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2914C-9F90-4CC4-9CB9-43D92740A0BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A1FE5-9B35-481E-BF76-B3012DA48F5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,10 +65,7 @@
           <t>GL_Navigation_Period_21B.xlsx for:
 GL10
 GL20
-GL150
-GL250
-GL260
-For GL 30, 50, 190, 280 don't use any navigation file</t>
+For GL 30, 50, 170, 190, 280 don't use any navigation file</t>
         </r>
       </text>
     </comment>
@@ -117,10 +116,15 @@
 GL110
 GL120
 GL140
+GL150
 GL160
 GL180
 GL200
-For GL30, GL50, GL190, GL280 don't use any Navigation File.</t>
+GL220
+GL240
+GL250
+GL260
+For GL30, GL50, GL170, GL190, GL280 don't use any Navigation File.</t>
         </r>
       </text>
     </comment>
@@ -163,8 +167,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-GL220, GL240
-For GL 30, 50, 190, 280 don't use any navigation file</t>
+GL240
+For GL 30, 50, 170, 190, 280 don't use any navigation file</t>
         </r>
       </text>
     </comment>
@@ -173,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="159">
   <si>
     <t>SL.NO</t>
   </si>
@@ -638,6 +642,18 @@
   </si>
   <si>
     <t>GL_Navigation_DashBoard_21B.xlsx</t>
+  </si>
+  <si>
+    <t>GL 170</t>
+  </si>
+  <si>
+    <t>GL170_Script_ApproveJournal_21B.xlsx</t>
+  </si>
+  <si>
+    <t>ApproveJournal</t>
+  </si>
+  <si>
+    <t>GL170_TestData_ApproveJournal_21B.xlsx</t>
   </si>
 </sst>
 </file>
@@ -740,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,6 +797,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34543423-A075-4616-87B1-DF7691459A53}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,11 +1129,11 @@
     <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.08984375" style="17" customWidth="1"/>
     <col min="11" max="11" width="56.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.453125" style="1" bestFit="1" customWidth="1"/>
@@ -1218,7 +1238,7 @@
       <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -1280,8 +1300,8 @@
       <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>150</v>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>151</v>
@@ -1342,8 +1362,8 @@
       <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>149</v>
+      <c r="J4" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>152</v>
@@ -1378,7 +1398,7 @@
     </row>
     <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>96</v>
@@ -1404,7 +1424,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>149</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -1440,7 +1460,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>96</v>
@@ -1466,7 +1486,7 @@
       <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1502,7 +1522,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>96</v>
@@ -1528,7 +1548,7 @@
       <c r="I7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1564,7 +1584,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>96</v>
@@ -1590,8 +1610,8 @@
       <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
+      <c r="J8" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>108</v>
@@ -1626,7 +1646,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>96</v>
@@ -1652,7 +1672,7 @@
       <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1688,7 +1708,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>96</v>
@@ -1714,7 +1734,7 @@
       <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1750,7 +1770,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>96</v>
@@ -1776,7 +1796,7 @@
       <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1812,7 +1832,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>96</v>
@@ -1838,7 +1858,7 @@
       <c r="I12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1874,7 +1894,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>96</v>
@@ -1900,7 +1920,7 @@
       <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1936,7 +1956,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>96</v>
@@ -1962,7 +1982,7 @@
       <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1998,7 +2018,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>96</v>
@@ -2024,7 +2044,7 @@
       <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2060,7 +2080,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>96</v>
@@ -2086,7 +2106,7 @@
       <c r="I16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -2122,7 +2142,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>96</v>
@@ -2148,7 +2168,7 @@
       <c r="I17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -2184,7 +2204,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>96</v>
@@ -2210,8 +2230,8 @@
       <c r="I18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>150</v>
+      <c r="J18" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>128</v>
@@ -2246,7 +2266,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>96</v>
@@ -2272,7 +2292,7 @@
       <c r="I19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -2308,7 +2328,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>96</v>
@@ -2320,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -2328,20 +2348,20 @@
       <c r="G20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>54</v>
+      <c r="H20" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>19</v>
@@ -2353,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>22</v>
@@ -2362,7 +2382,7 @@
         <v>23</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>20</v>
@@ -2370,7 +2390,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>96</v>
@@ -2382,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>24</v>
@@ -2391,19 +2411,19 @@
         <v>17</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>19</v>
@@ -2415,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>22</v>
@@ -2424,7 +2444,7 @@
         <v>23</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>20</v>
@@ -2432,7 +2452,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
@@ -2444,7 +2464,7 @@
         <v>98</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>24</v>
@@ -2453,19 +2473,19 @@
         <v>17</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>19</v>
@@ -2477,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>22</v>
@@ -2486,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>20</v>
@@ -2494,7 +2514,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>96</v>
@@ -2506,7 +2526,7 @@
         <v>98</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>24</v>
@@ -2515,19 +2535,19 @@
         <v>17</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>149</v>
+      <c r="J23" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>19</v>
@@ -2539,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>22</v>
@@ -2548,7 +2568,7 @@
         <v>23</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>20</v>
@@ -2556,7 +2576,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>96</v>
@@ -2568,7 +2588,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>24</v>
@@ -2577,19 +2597,19 @@
         <v>17</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>19</v>
@@ -2601,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>22</v>
@@ -2610,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>20</v>
@@ -2618,7 +2638,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>96</v>
@@ -2630,7 +2650,7 @@
         <v>98</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>24</v>
@@ -2639,19 +2659,19 @@
         <v>17</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>19</v>
@@ -2663,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>22</v>
@@ -2672,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>20</v>
@@ -2680,7 +2700,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>96</v>
@@ -2692,7 +2712,7 @@
         <v>98</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>24</v>
@@ -2701,19 +2721,19 @@
         <v>17</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>19</v>
@@ -2725,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>22</v>
@@ -2734,7 +2754,7 @@
         <v>23</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>20</v>
@@ -2742,7 +2762,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>96</v>
@@ -2754,7 +2774,7 @@
         <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
@@ -2763,19 +2783,19 @@
         <v>17</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>19</v>
@@ -2787,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>22</v>
@@ -2796,71 +2816,133 @@
         <v>23</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="G29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="12" t="s">
+      <c r="I29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="12">
-        <v>1</v>
-      </c>
-      <c r="O28" s="12">
-        <v>1</v>
-      </c>
-      <c r="P28" s="12" t="s">
+      <c r="N29" s="12">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>1</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="T29" s="12" t="s">
         <v>20</v>
       </c>
     </row>
